--- a/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,14</t>
+          <t>-1,91; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,6</t>
+          <t>-1,43; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,03</t>
+          <t>-1,69; 1,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,66</t>
+          <t>-1,21; 1,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,07</t>
+          <t>-1,46; 1,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,71</t>
+          <t>-1,94; 0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,13</t>
+          <t>-1,13; 1,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,77</t>
+          <t>-0,94; 1,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,33</t>
+          <t>-1,41; 0,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>-33,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,53%</t>
+          <t>-33,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,51%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>-53,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,88%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-41,99%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 353,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 168,09</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 102,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 440,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,87; 123,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 270,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 229,22</t>
+          <t>-86,83; 325,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 60,53</t>
+          <t>-73,86; 390,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 105,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-0,01</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,99</t>
+          <t>-1,19; 3,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,69</t>
+          <t>-2,1; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,0</t>
+          <t>-2,3; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,87</t>
+          <t>-0,36; 4,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,57</t>
+          <t>-2,45; 1,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,37</t>
+          <t>-1,55; 2,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,03</t>
+          <t>-0,12; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,32</t>
+          <t>-1,7; 0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,49</t>
+          <t>-1,31; 1,33</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-33,39%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>-17,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>-24,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>-34,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,64%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>72,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>-25,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-41,99%</t>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,96; 353,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-74,95; 168,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,33; 102,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,1; 440,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,87; 123,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,79; 270,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,83; 325,31</t>
+          <t>-8,53; 229,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 390,68</t>
+          <t>-66,25; 60,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,7; 105,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,52</t>
+          <t>-0,58; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,0</t>
+          <t>-2,14; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,0</t>
+          <t>-2,47; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,23; 2,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,98</t>
+          <t>-2,9; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; -0,03</t>
+          <t>-2,96; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,26</t>
+          <t>-0,35; 2,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,31</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; -0,18</t>
+          <t>-2,01; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>117,07%</t>
+          <t>185,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>136,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-59,41%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-90,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 486,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 314,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,99</t>
+          <t>-0,85; 1,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,69</t>
+          <t>-1,3; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,0</t>
+          <t>-0,81; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,87</t>
+          <t>-2,56; 0,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,57</t>
+          <t>-2,11; 1,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,37</t>
+          <t>-2,96; -0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,03</t>
+          <t>-1,27; 0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,32</t>
+          <t>-1,25; 0,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,49</t>
+          <t>-1,32; 0,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-33,39%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>-45,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>-70,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>-22,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,64%</t>
+          <t>-91,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>-44,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>-32,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-41,99%</t>
+          <t>-48,2%</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1027,34 +1027,34 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 396,02</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-86,83; 325,31</t>
+          <t>-89,63; 197,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 390,68</t>
+          <t>-88,98; 183,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 237,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,14</t>
+          <t>-2,46; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,6</t>
+          <t>-2,19; 2,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,03</t>
+          <t>-3,42; 0,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,66</t>
+          <t>-1,25; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,07</t>
+          <t>-2,04; 2,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,71</t>
+          <t>-3,78; 0,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,13</t>
+          <t>-0,94; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,77</t>
+          <t>-1,5; 1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,33</t>
+          <t>-2,66; 0,12</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,53%</t>
+          <t>-51,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>103,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,51%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>-74,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,88%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>-62,89%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 353,04</t>
+          <t>-100,0; 521,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 168,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,33; 102,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 440,85</t>
+          <t>-67,99; 952,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,87; 123,45</t>
+          <t>-84,72; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 270,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 229,22</t>
+          <t>-48,37; 453,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 60,53</t>
+          <t>-68,31; 270,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 105,44</t>
+          <t>-100,0; 74,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,52</t>
+          <t>-1,82; 3,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,65</t>
+          <t>-2,47; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,67</t>
+          <t>-3,23; 1,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,88</t>
+          <t>-0,38; 5,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,61</t>
+          <t>-2,7; 0,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,37</t>
+          <t>-0,53; 4,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,36</t>
+          <t>-0,37; 3,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,42</t>
+          <t>-2,06; 0,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,63</t>
+          <t>-1,18; 2,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>131,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,6%</t>
+          <t>-53,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>101,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-27,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 189,97</t>
+          <t>-58,68; 380,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 98,17</t>
+          <t>-77,47; 234,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 96,53</t>
+          <t>-85,68; 120,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 223,74</t>
+          <t>-36,98; 755,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 81,44</t>
+          <t>-100,0; 282,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 162,32</t>
+          <t>-29,86; 786,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 142,12</t>
+          <t>-23,01; 265,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 48,87</t>
+          <t>-75,47; 67,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 67,69</t>
+          <t>-45,21; 182,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 1,51</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 0,72</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 0,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 1,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 0,67</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 1,31</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 1,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 0,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>34,55%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-18,93%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-23,6%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>43,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-21,27%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-37,01; 201,16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-69,88; 104,31</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-65,57; 101,88</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-27,94; 214,28</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-70,57; 99,14</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-55,9; 162,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 153,48</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-55,31; 40,2</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-47,44; 79,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,1</t>
+          <t>-0,57; 3,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,0</t>
+          <t>-2,55; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,67</t>
+          <t>-1,2; 2,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,0</t>
+          <t>-3,19; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,17</t>
+          <t>-0,35; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,0</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,0</t>
+          <t>-1,96; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,25</t>
+          <t>-0,82; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,62</t>
+          <t>-1,31; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,03</t>
+          <t>-0,81; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,34</t>
+          <t>-2,63; 0,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,21</t>
+          <t>-2,11; 1,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; -0,2</t>
+          <t>-3,06; -0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,49</t>
+          <t>-1,29; 0,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,53</t>
+          <t>-1,25; 0,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,49</t>
+          <t>-1,35; 0,42</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 396,02</t>
+          <t>-100,0; 390,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,63; 197,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,98; 183,68</t>
+          <t>-88,44; 205,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 237,13</t>
+          <t>-97,09; 227,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,56</t>
+          <t>-1,72; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,07</t>
+          <t>-2,13; 2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,71</t>
+          <t>-2,98; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,65</t>
+          <t>-1,32; 4,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,94</t>
+          <t>-2,31; 3,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,19</t>
+          <t>-3,78; 0,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,92</t>
+          <t>-0,89; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,83</t>
+          <t>-1,72; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,12</t>
+          <t>-2,54; 0,17</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 521,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 952,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 453,4</t>
+          <t>-42,32; 401,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-68,31; 270,12</t>
+          <t>-74,49; 223,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,27</t>
+          <t>-100,0; 84,68</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,92</t>
+          <t>-1,48; 3,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,37</t>
+          <t>-2,67; 2,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,15</t>
+          <t>-2,86; 1,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,51</t>
+          <t>-0,46; 5,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,58</t>
+          <t>-0,5; 4,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,63</t>
+          <t>-0,35; 3,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,82</t>
+          <t>-2,05; 0,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,12</t>
+          <t>-1,14; 2,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 380,45</t>
+          <t>-51,96; 330,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,47; 234,8</t>
+          <t>-80,46; 231,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,68; 120,31</t>
+          <t>-81,33; 121,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 755,59</t>
+          <t>-33,57; 749,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 282,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 786,93</t>
+          <t>-38,51; 744,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 265,98</t>
+          <t>-18,52; 305,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 67,89</t>
+          <t>-73,07; 86,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 182,95</t>
+          <t>-43,32; 167,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,51</t>
+          <t>-0,52; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,72</t>
+          <t>-1,12; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,74</t>
+          <t>-1,09; 0,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,83</t>
+          <t>-0,41; 1,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,67</t>
+          <t>-1,37; 0,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,31</t>
+          <t>-0,89; 1,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,39</t>
+          <t>-0,18; 1,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,35</t>
+          <t>-0,99; 0,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,71</t>
+          <t>-0,72; 0,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 201,16</t>
+          <t>-33,18; 226,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 104,31</t>
+          <t>-68,7; 96,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 101,88</t>
+          <t>-64,58; 114,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 214,28</t>
+          <t>-27,47; 231,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 99,14</t>
+          <t>-69,76; 74,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 162,74</t>
+          <t>-52,64; 167,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 153,48</t>
+          <t>-13,35; 140,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 40,2</t>
+          <t>-59,45; 38,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 79,16</t>
+          <t>-45,85; 75,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,99</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-0,53</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-0,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,08</t>
+          <t>-1,19; 2,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,0</t>
+          <t>-2,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,0</t>
+          <t>-2,9; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,72</t>
+          <t>-0,58; 3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,11</t>
+          <t>-0,62; 2,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,0</t>
+          <t>-1,96; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,0</t>
+          <t>-1,69; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>90,06%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>185,4%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>90,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,96; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,06</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,25</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,3</t>
+          <t>-2,32; 0,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,63</t>
+          <t>-2,0; 1,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,8</t>
+          <t>-2,77; -0,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,4</t>
+          <t>-0,85; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,15</t>
+          <t>-1,13; 0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; -0,25</t>
+          <t>-0,85; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,45</t>
+          <t>-1,35; 0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,59</t>
+          <t>-1,26; 0,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,42</t>
+          <t>-1,34; 0,36</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-70,31%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-22,94%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-91,49%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>10,44%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-45,21%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>42,29%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-70,31%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-22,94%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-91,68%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,2%</t>
+          <t>-50,74%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 390,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,44; 205,41</t>
+          <t>-86,99; 179,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-97,09; 227,15</t>
+          <t>-100,0; 147,25</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,31</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,66</t>
+          <t>-1,16; 4,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,22</t>
+          <t>-2,46; 2,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,02</t>
+          <t>-3,75; 0,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,64</t>
+          <t>-2,09; 2,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,23</t>
+          <t>-2,35; 2,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,4</t>
+          <t>-3,13; 0,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,92</t>
+          <t>-0,74; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,66</t>
+          <t>-1,36; 1,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,17</t>
+          <t>-2,57; 0,27</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>103,44%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-70,43%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>20,88%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>3,16%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-51,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>103,44%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,78%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-74,77%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-62,89%</t>
+          <t>-59,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-64,44; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 401,45</t>
+          <t>-44,8; 436,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,49; 223,51</t>
+          <t>-60,94; 281,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,68</t>
+          <t>-100,0; 123,09</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,87</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,18</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,97</t>
+          <t>-0,54; 5,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,34</t>
+          <t>-2,71; 0,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,21</t>
+          <t>-0,85; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,73</t>
+          <t>-1,56; 3,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,89</t>
+          <t>-2,65; 2,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,41</t>
+          <t>-3,02; 1,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,71</t>
+          <t>-0,29; 4,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,94</t>
+          <t>-2,02; 1,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,05</t>
+          <t>-1,48; 1,79</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>131,93%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-53,74%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86,68%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>38,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-7,76%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-34,04%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>131,93%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-53,74%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>101,28%</t>
+          <t>-34,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>13,88%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 330,07</t>
+          <t>-32,29; 736,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,46; 231,23</t>
+          <t>-100,0; 349,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,33; 121,47</t>
+          <t>-41,27; 539,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 749,66</t>
+          <t>-50,86; 323,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,75; 225,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 744,39</t>
+          <t>-84,89; 138,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 305,66</t>
+          <t>-21,3; 320,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 86,57</t>
+          <t>-75,25; 94,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 167,51</t>
+          <t>-53,92; 138,86</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,23</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,48</t>
+          <t>-0,39; 1,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,68</t>
+          <t>-1,28; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,72</t>
+          <t>-1,0; 1,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,92</t>
+          <t>-0,58; 1,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,52</t>
+          <t>-1,17; 0,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,36</t>
+          <t>-1,09; 0,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,34</t>
+          <t>-0,16; 1,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,33</t>
+          <t>-0,86; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,71</t>
+          <t>-0,81; 0,58</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-23,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>34,55%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-18,93%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-19,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>53,31%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,6%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>-20,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-6,05%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 226,04</t>
+          <t>-28,36; 223,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,7; 96,66</t>
+          <t>-70,93; 81,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 114,04</t>
+          <t>-56,6; 145,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 231,41</t>
+          <t>-37,97; 189,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 74,28</t>
+          <t>-65,58; 98,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 167,17</t>
+          <t>-66,68; 90,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 140,8</t>
+          <t>-12,35; 142,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 38,83</t>
+          <t>-56,02; 48,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 75,98</t>
+          <t>-50,67; 62,43</t>
         </is>
       </c>
     </row>
